--- a/sinkhole_data/구별/사상구.xlsx
+++ b/sinkhole_data/구별/사상구.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dogs0\OneDrive\바탕 화면\2025 전국대학생 CM•시공 경진대회\싱크홀 데이터\구별\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A51C46-F18F-43D5-BFBB-A50C191DC63E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB753661-9752-45EF-A2F7-38FEEDC59BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
   <si>
     <t>부산광역시 사상구 장인로 77번길 33</t>
   </si>
@@ -136,35 +136,16 @@
     <t>지하시설물 정비 및 되메우기 후 아스팔트 포장 실시</t>
   </si>
   <si>
-    <t xml:space="preserve">부산광역시 사상구 학장동 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>기타</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>우로 지반에 있던 모래가 쓸려가 싱크홀이 생긴 것으로 추정</t>
-  </si>
-  <si>
-    <t>부산광역시 사상구 감전동 새벽시장 맞은편 도로</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반적인 싱크홀과는 다소 차이, 지반침하 원인을 파악중</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>date</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>location</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>reason</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>width</t>
@@ -177,7 +158,7 @@
   </si>
   <si>
     <t>method</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>lon</t>
@@ -186,15 +167,644 @@
     <t>lat</t>
   </si>
   <si>
-    <t>행정동주소</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부산광역시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사상구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>학장동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>행정동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중심</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주소로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기타</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>우로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지반에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있던</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모래가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>쓸려가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>싱크홀이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>생긴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>것으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추정</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부산광역시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사상구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>감전동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>새벽시장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>맞은편</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>도로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>행정동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중심</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주소로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일반적인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>싱크홀과는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다소</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>차이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지반침하</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>원인을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파악중</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,32 +826,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -255,18 +840,24 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="8"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Noto Sans KR"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Noto Sans KR"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -296,7 +887,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -320,24 +911,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFDDDDDD"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFDDDDDD"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF333333"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFDDDDDD"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFDDDDDD"/>
-      </left>
+      <left/>
       <right style="medium">
         <color rgb="FFDDDDDD"/>
       </right>
@@ -353,7 +927,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -361,32 +935,26 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -694,47 +1262,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F16" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.4140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.4140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.08203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="115.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="26.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="G1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>46</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -759,13 +1327,13 @@
       <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="9">
         <v>128.97773340631099</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="9">
         <v>35.143535163380498</v>
       </c>
-      <c r="J2" s="10"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="1">
@@ -789,13 +1357,13 @@
       <c r="G3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="9">
         <v>128.98414123878601</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="9">
         <v>35.158921609023302</v>
       </c>
-      <c r="J3" s="10"/>
+      <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="1">
@@ -819,13 +1387,13 @@
       <c r="G4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="9">
         <v>128.967110845127</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="9">
         <v>35.159388673411598</v>
       </c>
-      <c r="J4" s="10"/>
+      <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="1">
@@ -849,13 +1417,13 @@
       <c r="G5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="9">
         <v>128.98275409033101</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="9">
         <v>35.1619001855642</v>
       </c>
-      <c r="J5" s="10"/>
+      <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="1">
@@ -879,13 +1447,13 @@
       <c r="G6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="9">
         <v>128.98987322285899</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="9">
         <v>35.186998244100401</v>
       </c>
-      <c r="J6" s="10"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="1">
@@ -909,13 +1477,13 @@
       <c r="G7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="9">
         <v>128.993376967747</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="9">
         <v>35.179442858520297</v>
       </c>
-      <c r="J7" s="10"/>
+      <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="1">
@@ -939,13 +1507,13 @@
       <c r="G8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="9">
         <v>128.98347475928199</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="9">
         <v>35.155877537686401</v>
       </c>
-      <c r="J8" s="10"/>
+      <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="1">
@@ -969,13 +1537,13 @@
       <c r="G9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="9">
         <v>128.98341535589401</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="9">
         <v>35.155238674971002</v>
       </c>
-      <c r="J9" s="10"/>
+      <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="1">
@@ -999,13 +1567,13 @@
       <c r="G10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="9">
         <v>128.98458381970099</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="9">
         <v>35.189770560783202</v>
       </c>
-      <c r="J10" s="10"/>
+      <c r="J10" s="7"/>
     </row>
     <row r="11" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="1">
@@ -1029,13 +1597,13 @@
       <c r="G11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="9">
         <v>128.97818104454899</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="9">
         <v>35.1289377439413</v>
       </c>
-      <c r="J11" s="10"/>
+      <c r="J11" s="7"/>
     </row>
     <row r="12" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="1">
@@ -1059,13 +1627,13 @@
       <c r="G12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="9">
         <v>128.983077433532</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="9">
         <v>35.150810416477903</v>
       </c>
-      <c r="J12" s="10"/>
+      <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="1">
@@ -1089,13 +1657,13 @@
       <c r="G13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="9">
         <v>128.983077433532</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="9">
         <v>35.150810416477903</v>
       </c>
-      <c r="J13" s="10"/>
+      <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="1">
@@ -1119,13 +1687,13 @@
       <c r="G14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="9">
         <v>128.98198405585001</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="9">
         <v>35.151873679394697</v>
       </c>
-      <c r="J14" s="10"/>
+      <c r="J14" s="7"/>
     </row>
     <row r="15" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="1">
@@ -1149,13 +1717,13 @@
       <c r="G15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="9">
         <v>128.98250174010801</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="9">
         <v>35.151955324611102</v>
       </c>
-      <c r="J15" s="10"/>
+      <c r="J15" s="7"/>
     </row>
     <row r="16" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="1">
@@ -1179,13 +1747,13 @@
       <c r="G16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="9">
         <v>128.98157522289401</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="9">
         <v>35.151303615145501</v>
       </c>
-      <c r="J16" s="10"/>
+      <c r="J16" s="7"/>
     </row>
     <row r="17" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="1">
@@ -1209,13 +1777,13 @@
       <c r="G17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="9">
         <v>128.98122906525401</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="9">
         <v>35.149245580496697</v>
       </c>
-      <c r="J17" s="10"/>
+      <c r="J17" s="7"/>
     </row>
     <row r="18" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="1">
@@ -1239,74 +1807,68 @@
       <c r="G18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="9">
         <v>128.98175682589999</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="9">
         <v>35.149291017281499</v>
       </c>
-      <c r="J18" s="10"/>
+      <c r="J18" s="7"/>
     </row>
     <row r="19" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="3">
+      <c r="A19" s="5">
         <v>45760</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="5">
+      <c r="B19" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="6">
         <v>5</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="6">
         <v>3</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="6">
         <v>4.5</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="11">
+      <c r="G19" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="6">
         <v>128.98694919114499</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="6">
         <v>35.141726176727197</v>
       </c>
-      <c r="J19" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="20" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>45761</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5">
+      <c r="B20" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6">
         <v>3</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="6">
         <v>3</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="6">
         <v>2</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H20" s="11">
+      <c r="G20" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" s="6">
         <v>128.98263215057599</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="6">
         <v>35.153259897135698</v>
-      </c>
-      <c r="J20" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
